--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s4_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>874.8784746097255</v>
+        <v>305.5522071246552</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.66295360775301</v>
+        <v>37.55220712465517</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.2160238063541</v>
+        <v>2.318900601578257</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.661544808322667</v>
+        <v>2.318900601578257</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>738.1500000000038</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.62</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>33.71927412272879</v>
       </c>
     </row>
     <row r="4">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.28956874289246</v>
+        <v>33.15868643584639</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.61595173195241</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>39.80943827304495</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.21602380635411</v>
+        <v>42.1283388746232</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.42139854811867</v>
+        <v>38.38081893105146</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,85 +1057,15 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.695</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>161.68</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>160.415</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.605</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>80.51000000000013</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>82.96999999999993</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>94.63499999999993</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>93.4749999999998</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>85.26999999999987</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>219.8350000000007</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>222.095</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>218.685</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>214.2750000000007</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>207.5850000000007</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>142.9850000000002</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.285</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>157.295</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>166.6849999999999</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>159.3349999999999</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>219.8350000000007</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>222.095</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>218.685</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>214.2750000000007</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>207.5850000000007</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9850000000002</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.285</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>157.295</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>166.6849999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>159.3349999999999</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>69.83500000000075</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>72.095</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>68.685</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>64.27500000000072</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>57.58500000000072</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1725,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>7.295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>16.68499999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>9.334999999999928</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2025,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +2040,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2051,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2062,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +2073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,111 +2084,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
